--- a/tut05/output/0501ME17.xlsx
+++ b/tut05/output/0501ME17.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C6" t="n">
-        <v>6.727272727272728</v>
+        <v>6.73</v>
       </c>
       <c r="D6" t="n">
-        <v>6.48936170212766</v>
+        <v>6.49</v>
       </c>
       <c r="E6" t="n">
-        <v>6.061224489795919</v>
+        <v>6.06</v>
       </c>
       <c r="F6" t="n">
-        <v>6.086956521739131</v>
+        <v>6.09</v>
       </c>
       <c r="G6" t="n">
-        <v>6.478260869565218</v>
+        <v>6.48</v>
       </c>
       <c r="H6" t="n">
         <v>8.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C8" t="n">
-        <v>7.21505376344086</v>
+        <v>7.22</v>
       </c>
       <c r="D8" t="n">
-        <v>6.971428571428572</v>
+        <v>6.97</v>
       </c>
       <c r="E8" t="n">
-        <v>6.735449735449736</v>
+        <v>6.74</v>
       </c>
       <c r="F8" t="n">
-        <v>6.608510638297872</v>
+        <v>6.61</v>
       </c>
       <c r="G8" t="n">
-        <v>6.587188612099644</v>
+        <v>6.59</v>
       </c>
       <c r="H8" t="n">
-        <v>6.806853582554517</v>
+        <v>6.81</v>
       </c>
       <c r="I8" t="n">
-        <v>6.961218836565097</v>
+        <v>6.96</v>
       </c>
     </row>
   </sheetData>
